--- a/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -820,25 +820,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G12" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H12" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I12" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J12" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="K12" s="3">
         <v>5500</v>
@@ -946,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="E17" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="F17" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="G17" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H17" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I17" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="J17" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K17" s="3">
         <v>5700</v>
@@ -978,22 +978,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="F18" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="G18" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="H18" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="I18" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="J18" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K18" s="3">
         <v>-5700</v>
@@ -1020,16 +1020,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F20" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G20" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="H20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I20" s="3">
         <v>-600</v>
@@ -1049,22 +1049,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="F21" s="3">
-        <v>-11600</v>
+        <v>-11900</v>
       </c>
       <c r="G21" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="H21" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I21" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="J21" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K21" s="3">
         <v>-5600</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="E23" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="F23" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="G23" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="H23" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="I23" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J23" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="K23" s="3">
         <v>-5700</v>
@@ -1191,25 +1191,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="E26" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="F26" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="G26" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="H26" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I26" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J26" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="K26" s="3">
         <v>-5700</v>
@@ -1220,25 +1220,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="E27" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="F27" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="G27" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="H27" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I27" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J27" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="K27" s="3">
         <v>-5700</v>
@@ -1368,16 +1368,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F32" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G32" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I32" s="3">
         <v>600</v>
@@ -1394,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="E33" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="F33" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="G33" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="H33" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I33" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J33" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="K33" s="3">
         <v>-5700</v>
@@ -1452,25 +1452,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="E35" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="F35" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="G35" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="H35" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I35" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J35" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="K35" s="3">
         <v>-5700</v>
@@ -1541,25 +1541,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23900</v>
+        <v>24400</v>
       </c>
       <c r="E41" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="F41" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G41" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="H41" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="I41" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J41" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="K41" s="3">
         <v>14100</v>
@@ -1570,13 +1570,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E42" s="3">
         <v>400</v>
       </c>
       <c r="F42" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="G42" s="3">
         <v>300</v>
@@ -1599,25 +1599,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F43" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G43" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H43" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="I43" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J43" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K43" s="3">
         <v>4600</v>
@@ -1686,25 +1686,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31600</v>
+        <v>32400</v>
       </c>
       <c r="E46" s="3">
-        <v>32500</v>
+        <v>33300</v>
       </c>
       <c r="F46" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="G46" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="H46" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="I46" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="J46" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="K46" s="3">
         <v>18900</v>
@@ -1715,7 +1715,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
         <v>400</v>
@@ -1759,7 +1759,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -1773,7 +1773,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E49" s="3">
         <v>2600</v>
@@ -1918,25 +1918,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="E54" s="3">
-        <v>35600</v>
+        <v>36500</v>
       </c>
       <c r="F54" s="3">
-        <v>27100</v>
+        <v>27800</v>
       </c>
       <c r="G54" s="3">
-        <v>18800</v>
+        <v>19200</v>
       </c>
       <c r="H54" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="I54" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="J54" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="K54" s="3">
         <v>21200</v>
@@ -1973,25 +1973,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E57" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="F57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7800</v>
-      </c>
       <c r="I57" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="J57" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K57" s="3">
         <v>2900</v>
@@ -2002,25 +2002,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9100</v>
+        <v>9300</v>
       </c>
       <c r="E58" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="F58" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="G58" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="H58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -2031,19 +2031,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E59" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F59" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G59" s="3">
         <v>2200</v>
       </c>
       <c r="H59" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I59" s="3">
         <v>1800</v>
@@ -2060,25 +2060,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23100</v>
+        <v>23600</v>
       </c>
       <c r="E60" s="3">
-        <v>28400</v>
+        <v>29000</v>
       </c>
       <c r="F60" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="G60" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="H60" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="I60" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="J60" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="K60" s="3">
         <v>4500</v>
@@ -2089,25 +2089,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F61" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G61" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H61" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I61" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="J61" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="K61" s="3">
         <v>1000</v>
@@ -2234,25 +2234,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E66" s="3">
         <v>30400</v>
       </c>
-      <c r="E66" s="3">
-        <v>29700</v>
-      </c>
       <c r="F66" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="G66" s="3">
-        <v>23200</v>
+        <v>23700</v>
       </c>
       <c r="H66" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="I66" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="J66" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="K66" s="3">
         <v>5600</v>
@@ -2392,25 +2392,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-49000</v>
+        <v>-50100</v>
       </c>
       <c r="E72" s="3">
-        <v>-35100</v>
+        <v>-36000</v>
       </c>
       <c r="F72" s="3">
-        <v>-40200</v>
+        <v>-41100</v>
       </c>
       <c r="G72" s="3">
-        <v>-22400</v>
+        <v>-22900</v>
       </c>
       <c r="H72" s="3">
-        <v>-57300</v>
+        <v>-58600</v>
       </c>
       <c r="I72" s="3">
-        <v>-49700</v>
+        <v>-50900</v>
       </c>
       <c r="J72" s="3">
-        <v>-39600</v>
+        <v>-40500</v>
       </c>
       <c r="K72" s="3">
         <v>-31500</v>
@@ -2508,25 +2508,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="E76" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="F76" s="3">
         <v>2300</v>
       </c>
       <c r="G76" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H76" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="I76" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J76" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="K76" s="3">
         <v>15600</v>
@@ -2600,25 +2600,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="E81" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="F81" s="3">
-        <v>-11800</v>
+        <v>-12100</v>
       </c>
       <c r="G81" s="3">
-        <v>-13700</v>
+        <v>-14000</v>
       </c>
       <c r="H81" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I81" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="J81" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="K81" s="3">
         <v>-5700</v>
@@ -2816,25 +2816,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="E89" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="F89" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I89" s="3">
-        <v>-10300</v>
+        <v>-10600</v>
       </c>
       <c r="J89" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K89" s="3">
         <v>-6100</v>
@@ -2948,10 +2948,10 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="F94" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3103,25 +3103,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="E100" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="F100" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="G100" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H100" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I100" s="3">
         <v>1500</v>
       </c>
       <c r="J100" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
@@ -3161,22 +3161,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="F102" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H102" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I102" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BPTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,61 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,8 +747,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,8 +779,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +811,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,37 +827,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="3">
-        <v>10000</v>
+        <v>15100</v>
       </c>
       <c r="F12" s="3">
-        <v>6400</v>
+        <v>10300</v>
       </c>
       <c r="G12" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="H12" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,37 +921,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,37 +966,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16600</v>
+        <v>12600</v>
       </c>
       <c r="E17" s="3">
-        <v>10700</v>
+        <v>17200</v>
       </c>
       <c r="F17" s="3">
-        <v>6900</v>
+        <v>11100</v>
       </c>
       <c r="G17" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="H17" s="3">
-        <v>6200</v>
+        <v>7600</v>
       </c>
       <c r="I17" s="3">
-        <v>9800</v>
+        <v>6400</v>
       </c>
       <c r="J17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -978,28 +1008,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-10700</v>
+        <v>-17200</v>
       </c>
       <c r="F18" s="3">
-        <v>-6900</v>
+        <v>-11100</v>
       </c>
       <c r="G18" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="H18" s="3">
-        <v>-6200</v>
+        <v>-7600</v>
       </c>
       <c r="I18" s="3">
-        <v>-9800</v>
+        <v>-6400</v>
       </c>
       <c r="J18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1044,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,28 +1054,31 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-2800</v>
+        <v>-1800</v>
       </c>
       <c r="F20" s="3">
-        <v>-5200</v>
+        <v>-2900</v>
       </c>
       <c r="G20" s="3">
-        <v>-6600</v>
+        <v>-5400</v>
       </c>
       <c r="H20" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,28 +1086,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-13400</v>
+        <v>-18900</v>
       </c>
       <c r="F21" s="3">
-        <v>-11900</v>
+        <v>-13900</v>
       </c>
       <c r="G21" s="3">
-        <v>-13800</v>
+        <v>-12300</v>
       </c>
       <c r="H21" s="3">
-        <v>-7600</v>
+        <v>-14400</v>
       </c>
       <c r="I21" s="3">
-        <v>-10300</v>
+        <v>-7900</v>
       </c>
       <c r="J21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,37 +1138,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18400</v>
+        <v>-13100</v>
       </c>
       <c r="E23" s="3">
-        <v>-13500</v>
+        <v>-19000</v>
       </c>
       <c r="F23" s="3">
-        <v>-12100</v>
+        <v>-14000</v>
       </c>
       <c r="G23" s="3">
-        <v>-14000</v>
+        <v>-12500</v>
       </c>
       <c r="H23" s="3">
-        <v>-7800</v>
+        <v>-14500</v>
       </c>
       <c r="I23" s="3">
-        <v>-10400</v>
+        <v>-8100</v>
       </c>
       <c r="J23" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,13 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18400</v>
+        <v>-13100</v>
       </c>
       <c r="E26" s="3">
-        <v>-13500</v>
+        <v>-19000</v>
       </c>
       <c r="F26" s="3">
-        <v>-12100</v>
+        <v>-14000</v>
       </c>
       <c r="G26" s="3">
-        <v>-14000</v>
+        <v>-12500</v>
       </c>
       <c r="H26" s="3">
-        <v>-7700</v>
+        <v>-14500</v>
       </c>
       <c r="I26" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18400</v>
+        <v>-13100</v>
       </c>
       <c r="E27" s="3">
-        <v>-13500</v>
+        <v>-19000</v>
       </c>
       <c r="F27" s="3">
-        <v>-12100</v>
+        <v>-14000</v>
       </c>
       <c r="G27" s="3">
-        <v>-14000</v>
+        <v>-12500</v>
       </c>
       <c r="H27" s="3">
-        <v>-7700</v>
+        <v>-14500</v>
       </c>
       <c r="I27" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1426,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1368,57 +1438,63 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="3">
-        <v>5200</v>
+        <v>2900</v>
       </c>
       <c r="G32" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="H32" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18400</v>
+        <v>-13100</v>
       </c>
       <c r="E33" s="3">
-        <v>-13500</v>
+        <v>-19000</v>
       </c>
       <c r="F33" s="3">
-        <v>-12100</v>
+        <v>-14000</v>
       </c>
       <c r="G33" s="3">
-        <v>-14000</v>
+        <v>-12500</v>
       </c>
       <c r="H33" s="3">
-        <v>-7700</v>
+        <v>-14500</v>
       </c>
       <c r="I33" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J33" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18400</v>
+        <v>-13100</v>
       </c>
       <c r="E35" s="3">
-        <v>-13500</v>
+        <v>-19000</v>
       </c>
       <c r="F35" s="3">
-        <v>-12100</v>
+        <v>-14000</v>
       </c>
       <c r="G35" s="3">
-        <v>-14000</v>
+        <v>-12500</v>
       </c>
       <c r="H35" s="3">
-        <v>-7700</v>
+        <v>-14500</v>
       </c>
       <c r="I35" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J35" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,57 +1621,61 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24400</v>
+        <v>20900</v>
       </c>
       <c r="E41" s="3">
-        <v>23500</v>
+        <v>25300</v>
       </c>
       <c r="F41" s="3">
-        <v>6000</v>
+        <v>24300</v>
       </c>
       <c r="G41" s="3">
-        <v>12400</v>
+        <v>6200</v>
       </c>
       <c r="H41" s="3">
-        <v>6500</v>
+        <v>12900</v>
       </c>
       <c r="I41" s="3">
-        <v>5300</v>
+        <v>6700</v>
       </c>
       <c r="J41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="E42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
-        <v>13200</v>
-      </c>
       <c r="G42" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -1593,37 +1683,43 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5200</v>
+        <v>8800</v>
       </c>
       <c r="E43" s="3">
-        <v>7100</v>
+        <v>5400</v>
       </c>
       <c r="F43" s="3">
-        <v>5300</v>
+        <v>7400</v>
       </c>
       <c r="G43" s="3">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="H43" s="3">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="I43" s="3">
-        <v>6800</v>
+        <v>8300</v>
       </c>
       <c r="J43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,19 +1747,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1672,56 +1771,62 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="E46" s="3">
-        <v>33300</v>
+        <v>33200</v>
       </c>
       <c r="F46" s="3">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="G46" s="3">
-        <v>16100</v>
+        <v>25400</v>
       </c>
       <c r="H46" s="3">
-        <v>15000</v>
+        <v>16700</v>
       </c>
       <c r="I46" s="3">
-        <v>12200</v>
+        <v>15600</v>
       </c>
       <c r="J46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K46" s="3">
         <v>19800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G47" s="3">
         <v>400</v>
@@ -1733,21 +1838,24 @@
         <v>400</v>
       </c>
       <c r="J47" s="3">
+        <v>400</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -1756,10 +1864,10 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -1767,8 +1875,11 @@
       <c r="K48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1776,28 +1887,31 @@
         <v>2800</v>
       </c>
       <c r="E49" s="3">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="F49" s="3">
         <v>2700</v>
       </c>
       <c r="G49" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="H49" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J49" s="3">
         <v>2400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1900</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +1971,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1883,8 +2003,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37000</v>
+        <v>35900</v>
       </c>
       <c r="E54" s="3">
-        <v>36500</v>
+        <v>36900</v>
       </c>
       <c r="F54" s="3">
-        <v>27800</v>
+        <v>37800</v>
       </c>
       <c r="G54" s="3">
-        <v>19200</v>
+        <v>28800</v>
       </c>
       <c r="H54" s="3">
-        <v>18000</v>
+        <v>19900</v>
       </c>
       <c r="I54" s="3">
-        <v>15100</v>
+        <v>18700</v>
       </c>
       <c r="J54" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K54" s="3">
         <v>22300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2097,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7800</v>
+        <v>10700</v>
       </c>
       <c r="E57" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="F57" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="G57" s="3">
-        <v>9800</v>
+        <v>8400</v>
       </c>
       <c r="H57" s="3">
-        <v>8000</v>
+        <v>10200</v>
       </c>
       <c r="I57" s="3">
-        <v>5400</v>
+        <v>8300</v>
       </c>
       <c r="J57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E58" s="3">
         <v>9300</v>
       </c>
-      <c r="E58" s="3">
-        <v>15200</v>
-      </c>
       <c r="F58" s="3">
-        <v>11300</v>
+        <v>15700</v>
       </c>
       <c r="G58" s="3">
-        <v>7800</v>
+        <v>11700</v>
       </c>
       <c r="H58" s="3">
-        <v>5100</v>
+        <v>8100</v>
       </c>
       <c r="I58" s="3">
-        <v>3600</v>
+        <v>5300</v>
       </c>
       <c r="J58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="E59" s="3">
-        <v>5700</v>
+        <v>6800</v>
       </c>
       <c r="F59" s="3">
-        <v>3900</v>
+        <v>5900</v>
       </c>
       <c r="G59" s="3">
-        <v>2200</v>
+        <v>4100</v>
       </c>
       <c r="H59" s="3">
-        <v>6900</v>
+        <v>2300</v>
       </c>
       <c r="I59" s="3">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="J59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23600</v>
+        <v>27200</v>
       </c>
       <c r="E60" s="3">
-        <v>29000</v>
+        <v>24100</v>
       </c>
       <c r="F60" s="3">
-        <v>23400</v>
+        <v>30100</v>
       </c>
       <c r="G60" s="3">
-        <v>19800</v>
+        <v>24300</v>
       </c>
       <c r="H60" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="I60" s="3">
-        <v>10800</v>
+        <v>20800</v>
       </c>
       <c r="J60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6400</v>
+        <v>5300</v>
       </c>
       <c r="E61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1900</v>
       </c>
-      <c r="G61" s="3">
-        <v>3800</v>
-      </c>
       <c r="H61" s="3">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="I61" s="3">
-        <v>7000</v>
+        <v>5700</v>
       </c>
       <c r="J61" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K61" s="3">
         <v>6500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="E66" s="3">
-        <v>30400</v>
+        <v>30700</v>
       </c>
       <c r="F66" s="3">
-        <v>25400</v>
+        <v>31500</v>
       </c>
       <c r="G66" s="3">
-        <v>23700</v>
+        <v>26400</v>
       </c>
       <c r="H66" s="3">
-        <v>25700</v>
+        <v>24600</v>
       </c>
       <c r="I66" s="3">
-        <v>17800</v>
+        <v>26600</v>
       </c>
       <c r="J66" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-50100</v>
+        <v>-40300</v>
       </c>
       <c r="E72" s="3">
-        <v>-36000</v>
+        <v>-51900</v>
       </c>
       <c r="F72" s="3">
-        <v>-41100</v>
+        <v>-37300</v>
       </c>
       <c r="G72" s="3">
-        <v>-22900</v>
+        <v>-42600</v>
       </c>
       <c r="H72" s="3">
-        <v>-58600</v>
+        <v>-23700</v>
       </c>
       <c r="I72" s="3">
-        <v>-50900</v>
+        <v>-60800</v>
       </c>
       <c r="J72" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5900</v>
+        <v>3200</v>
       </c>
       <c r="E76" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F76" s="3">
-        <v>2300</v>
+        <v>6300</v>
       </c>
       <c r="G76" s="3">
-        <v>-4500</v>
+        <v>2400</v>
       </c>
       <c r="H76" s="3">
-        <v>-7700</v>
+        <v>-4700</v>
       </c>
       <c r="I76" s="3">
-        <v>-2700</v>
+        <v>-7900</v>
       </c>
       <c r="J76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18400</v>
+        <v>-13100</v>
       </c>
       <c r="E81" s="3">
-        <v>-13500</v>
+        <v>-19000</v>
       </c>
       <c r="F81" s="3">
-        <v>-12100</v>
+        <v>-14000</v>
       </c>
       <c r="G81" s="3">
-        <v>-14000</v>
+        <v>-12500</v>
       </c>
       <c r="H81" s="3">
-        <v>-7700</v>
+        <v>-14500</v>
       </c>
       <c r="I81" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J81" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,13 +2844,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="E89" s="3">
-        <v>-13800</v>
+        <v>-10900</v>
       </c>
       <c r="F89" s="3">
-        <v>-10000</v>
+        <v>-14300</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-10300</v>
       </c>
       <c r="H89" s="3">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-10600</v>
+        <v>-5200</v>
       </c>
       <c r="J89" s="3">
-        <v>-6100</v>
+        <v>-11000</v>
       </c>
       <c r="K89" s="3">
         <v>-6100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
-        <v>12700</v>
-      </c>
       <c r="F94" s="3">
-        <v>-13000</v>
+        <v>13200</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-13500</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3244,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,42 +3340,48 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11800</v>
+        <v>6000</v>
       </c>
       <c r="E100" s="3">
-        <v>18500</v>
+        <v>12200</v>
       </c>
       <c r="F100" s="3">
-        <v>16600</v>
+        <v>19200</v>
       </c>
       <c r="G100" s="3">
-        <v>5900</v>
+        <v>17200</v>
       </c>
       <c r="H100" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3150,38 +3399,44 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>17500</v>
-      </c>
       <c r="F102" s="3">
-        <v>-6500</v>
+        <v>18100</v>
       </c>
       <c r="G102" s="3">
-        <v>6000</v>
+        <v>-6700</v>
       </c>
       <c r="H102" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-9400</v>
-      </c>
       <c r="J102" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
@@ -834,25 +834,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
-        <v>15100</v>
+        <v>28300</v>
       </c>
       <c r="F12" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="G12" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H12" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I12" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J12" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="K12" s="3">
         <v>7300</v>
@@ -973,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="E17" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="F17" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="G17" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H17" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I17" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J17" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="K17" s="3">
         <v>8400</v>
@@ -1008,22 +1008,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-17200</v>
+        <v>-17600</v>
       </c>
       <c r="F18" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="G18" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="H18" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="I18" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="J18" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="K18" s="3">
         <v>-8400</v>
@@ -1054,19 +1054,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-1800</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="3">
         <v>-2900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J20" s="3">
         <v>-600</v>
@@ -1086,22 +1086,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-18900</v>
+        <v>-16300</v>
       </c>
       <c r="F21" s="3">
-        <v>-13900</v>
+        <v>-14100</v>
       </c>
       <c r="G21" s="3">
-        <v>-12300</v>
+        <v>-12600</v>
       </c>
       <c r="H21" s="3">
-        <v>-14400</v>
+        <v>-14600</v>
       </c>
       <c r="I21" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="J21" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="K21" s="3">
         <v>-8400</v>
@@ -1147,25 +1147,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E23" s="3">
-        <v>-19000</v>
+        <v>-16500</v>
       </c>
       <c r="F23" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="G23" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="H23" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I23" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="J23" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K23" s="3">
         <v>-8500</v>
@@ -1243,25 +1243,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E26" s="3">
-        <v>-19000</v>
+        <v>-16500</v>
       </c>
       <c r="F26" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="G26" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="H26" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I26" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J26" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K26" s="3">
         <v>-8500</v>
@@ -1275,25 +1275,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E27" s="3">
-        <v>-19000</v>
+        <v>-16500</v>
       </c>
       <c r="F27" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="G27" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="H27" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I27" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J27" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K27" s="3">
         <v>-8500</v>
@@ -1438,19 +1438,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>1800</v>
+        <v>-1100</v>
       </c>
       <c r="F32" s="3">
         <v>2900</v>
       </c>
       <c r="G32" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H32" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J32" s="3">
         <v>600</v>
@@ -1467,25 +1467,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E33" s="3">
-        <v>-19000</v>
+        <v>-16500</v>
       </c>
       <c r="F33" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="G33" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="H33" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I33" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J33" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K33" s="3">
         <v>-8500</v>
@@ -1531,25 +1531,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E35" s="3">
-        <v>-19000</v>
+        <v>-16500</v>
       </c>
       <c r="F35" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="G35" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="H35" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I35" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J35" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K35" s="3">
         <v>-8500</v>
@@ -1628,25 +1628,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="E41" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="F41" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="G41" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H41" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="I41" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="J41" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K41" s="3">
         <v>14700</v>
@@ -1666,10 +1666,10 @@
         <v>1000</v>
       </c>
       <c r="F42" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="H42" s="3">
         <v>300</v>
@@ -1692,25 +1692,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="E43" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F43" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G43" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="H43" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I43" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="J43" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K43" s="3">
         <v>4800</v>
@@ -1756,7 +1756,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
         <v>1500</v>
@@ -1788,25 +1788,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="E46" s="3">
-        <v>33200</v>
+        <v>33800</v>
       </c>
       <c r="F46" s="3">
-        <v>34500</v>
+        <v>35100</v>
       </c>
       <c r="G46" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="H46" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="I46" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="J46" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="K46" s="3">
         <v>19800</v>
@@ -1884,25 +1884,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="F49" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2800</v>
       </c>
-      <c r="H49" s="3">
-        <v>2700</v>
-      </c>
       <c r="I49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J49" s="3">
         <v>2500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>1900</v>
@@ -2044,25 +2044,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35900</v>
+        <v>36500</v>
       </c>
       <c r="E54" s="3">
-        <v>36900</v>
+        <v>37600</v>
       </c>
       <c r="F54" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="G54" s="3">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="H54" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="I54" s="3">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="J54" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="K54" s="3">
         <v>22300</v>
@@ -2104,25 +2104,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E57" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F57" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="G57" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="H57" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="I57" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="J57" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K57" s="3">
         <v>5000</v>
@@ -2136,25 +2136,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="E58" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="F58" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="G58" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="H58" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I58" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J58" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K58" s="3">
         <v>1900</v>
@@ -2168,22 +2168,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E59" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F59" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G59" s="3">
         <v>4100</v>
       </c>
       <c r="H59" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I59" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="J59" s="3">
         <v>1900</v>
@@ -2200,25 +2200,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="E60" s="3">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="F60" s="3">
-        <v>30100</v>
+        <v>30600</v>
       </c>
       <c r="G60" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="H60" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="I60" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="J60" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="K60" s="3">
         <v>8500</v>
@@ -2232,25 +2232,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E61" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
       </c>
       <c r="G61" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H61" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I61" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="J61" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="K61" s="3">
         <v>6500</v>
@@ -2267,7 +2267,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2392,25 +2392,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="E66" s="3">
-        <v>30700</v>
+        <v>31300</v>
       </c>
       <c r="F66" s="3">
-        <v>31500</v>
+        <v>32000</v>
       </c>
       <c r="G66" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="H66" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="I66" s="3">
-        <v>26600</v>
+        <v>27100</v>
       </c>
       <c r="J66" s="3">
-        <v>18400</v>
+        <v>18800</v>
       </c>
       <c r="K66" s="3">
         <v>15100</v>
@@ -2566,25 +2566,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40300</v>
+        <v>-41000</v>
       </c>
       <c r="E72" s="3">
-        <v>-51900</v>
+        <v>-52800</v>
       </c>
       <c r="F72" s="3">
-        <v>-37300</v>
+        <v>-37900</v>
       </c>
       <c r="G72" s="3">
-        <v>-42600</v>
+        <v>-43400</v>
       </c>
       <c r="H72" s="3">
-        <v>-23700</v>
+        <v>-24100</v>
       </c>
       <c r="I72" s="3">
-        <v>-60800</v>
+        <v>-61800</v>
       </c>
       <c r="J72" s="3">
-        <v>-52700</v>
+        <v>-53700</v>
       </c>
       <c r="K72" s="3">
         <v>-40500</v>
@@ -2697,19 +2697,19 @@
         <v>3200</v>
       </c>
       <c r="E76" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F76" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G76" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H76" s="3">
         <v>-4700</v>
       </c>
       <c r="I76" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="J76" s="3">
         <v>-2800</v>
@@ -2795,25 +2795,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E81" s="3">
-        <v>-19000</v>
+        <v>-16500</v>
       </c>
       <c r="F81" s="3">
-        <v>-14000</v>
+        <v>-14300</v>
       </c>
       <c r="G81" s="3">
-        <v>-12500</v>
+        <v>-12700</v>
       </c>
       <c r="H81" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I81" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J81" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="K81" s="3">
         <v>-8500</v>
@@ -3033,25 +3033,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="E89" s="3">
-        <v>-10900</v>
+        <v>-11100</v>
       </c>
       <c r="F89" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="G89" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J89" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="K89" s="3">
         <v>-6100</v>
@@ -3181,10 +3181,10 @@
         <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="G94" s="3">
-        <v>-13500</v>
+        <v>-13700</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3349,25 +3349,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E100" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="F100" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="G100" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="H100" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="I100" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J100" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K100" s="3">
         <v>6800</v>
@@ -3413,25 +3413,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="E102" s="3">
         <v>1000</v>
       </c>
       <c r="F102" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="G102" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="H102" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I102" s="3">
         <v>1200</v>
       </c>
       <c r="J102" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>BPTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,65 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,8 +754,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,8 +789,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +824,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,40 +841,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10200</v>
+        <v>10800</v>
       </c>
       <c r="E12" s="3">
-        <v>28300</v>
+        <v>10300</v>
       </c>
       <c r="F12" s="3">
-        <v>10500</v>
+        <v>15400</v>
       </c>
       <c r="G12" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H12" s="3">
         <v>6800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,8 +909,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,8 +944,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,14 +973,17 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,40 +993,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="E17" s="3">
-        <v>17600</v>
+        <v>12900</v>
       </c>
       <c r="F17" s="3">
-        <v>11300</v>
+        <v>17700</v>
       </c>
       <c r="G17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
-        <v>7700</v>
-      </c>
       <c r="I17" s="3">
-        <v>6500</v>
+        <v>7800</v>
       </c>
       <c r="J17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K17" s="3">
         <v>10400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,31 +1038,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-17600</v>
+        <v>-12900</v>
       </c>
       <c r="F18" s="3">
-        <v>-11300</v>
+        <v>-17700</v>
       </c>
       <c r="G18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-7300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7700</v>
-      </c>
       <c r="I18" s="3">
-        <v>-6500</v>
+        <v>-7800</v>
       </c>
       <c r="J18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1078,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,31 +1088,34 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2900</v>
+        <v>-1800</v>
       </c>
       <c r="G20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-7000</v>
-      </c>
       <c r="I20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,54 +1123,57 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-16300</v>
+        <v>-12200</v>
       </c>
       <c r="F21" s="3">
-        <v>-14100</v>
+        <v>-19200</v>
       </c>
       <c r="G21" s="3">
-        <v>-12600</v>
+        <v>-14200</v>
       </c>
       <c r="H21" s="3">
-        <v>-14600</v>
+        <v>-12700</v>
       </c>
       <c r="I21" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-8100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1141,40 +1181,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-16500</v>
-      </c>
       <c r="F23" s="3">
-        <v>-14300</v>
+        <v>-19400</v>
       </c>
       <c r="G23" s="3">
-        <v>-12700</v>
+        <v>-14400</v>
       </c>
       <c r="H23" s="3">
-        <v>-14800</v>
+        <v>-12800</v>
       </c>
       <c r="I23" s="3">
-        <v>-8200</v>
+        <v>-14900</v>
       </c>
       <c r="J23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,13 +1246,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-16500</v>
-      </c>
       <c r="F26" s="3">
-        <v>-14300</v>
+        <v>-19400</v>
       </c>
       <c r="G26" s="3">
-        <v>-12700</v>
+        <v>-14400</v>
       </c>
       <c r="H26" s="3">
-        <v>-14800</v>
+        <v>-12800</v>
       </c>
       <c r="I26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-16500</v>
-      </c>
       <c r="F27" s="3">
-        <v>-14300</v>
+        <v>-19400</v>
       </c>
       <c r="G27" s="3">
-        <v>-12700</v>
+        <v>-14400</v>
       </c>
       <c r="H27" s="3">
-        <v>-14800</v>
+        <v>-12800</v>
       </c>
       <c r="I27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1426,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,8 +1496,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,63 +1508,69 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-1100</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="G32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H32" s="3">
         <v>5500</v>
       </c>
-      <c r="H32" s="3">
-        <v>7000</v>
-      </c>
       <c r="I32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13400</v>
       </c>
-      <c r="E33" s="3">
-        <v>-16500</v>
-      </c>
       <c r="F33" s="3">
-        <v>-14300</v>
+        <v>-19400</v>
       </c>
       <c r="G33" s="3">
-        <v>-12700</v>
+        <v>-14400</v>
       </c>
       <c r="H33" s="3">
-        <v>-14800</v>
+        <v>-12800</v>
       </c>
       <c r="I33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13400</v>
       </c>
-      <c r="E35" s="3">
-        <v>-16500</v>
-      </c>
       <c r="F35" s="3">
-        <v>-14300</v>
+        <v>-19400</v>
       </c>
       <c r="G35" s="3">
-        <v>-12700</v>
+        <v>-14400</v>
       </c>
       <c r="H35" s="3">
-        <v>-14800</v>
+        <v>-12800</v>
       </c>
       <c r="I35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,104 +1708,114 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21300</v>
+        <v>12000</v>
       </c>
       <c r="E41" s="3">
-        <v>25800</v>
+        <v>21400</v>
       </c>
       <c r="F41" s="3">
-        <v>24800</v>
+        <v>25900</v>
       </c>
       <c r="G41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
-        <v>13100</v>
-      </c>
       <c r="I41" s="3">
-        <v>6800</v>
+        <v>13200</v>
       </c>
       <c r="J41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>600</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
-        <v>13900</v>
-      </c>
       <c r="H42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9000</v>
+        <v>5800</v>
       </c>
       <c r="E43" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,23 +1846,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -1774,48 +1873,54 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32700</v>
+        <v>20100</v>
       </c>
       <c r="E46" s="3">
-        <v>33800</v>
+        <v>32900</v>
       </c>
       <c r="F46" s="3">
-        <v>35100</v>
+        <v>34000</v>
       </c>
       <c r="G46" s="3">
-        <v>25900</v>
+        <v>35400</v>
       </c>
       <c r="H46" s="3">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="I46" s="3">
-        <v>15800</v>
+        <v>17100</v>
       </c>
       <c r="J46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K46" s="3">
         <v>12800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1826,10 +1931,10 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
         <v>500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>400</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -1841,24 +1946,27 @@
         <v>400</v>
       </c>
       <c r="K47" s="3">
+        <v>400</v>
+      </c>
+      <c r="L47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -1867,10 +1975,10 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -1878,8 +1986,11 @@
       <c r="L48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1887,31 +1998,34 @@
         <v>2900</v>
       </c>
       <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1900</v>
       </c>
       <c r="L49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,31 +2091,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2006,8 +2126,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36500</v>
+        <v>23800</v>
       </c>
       <c r="E54" s="3">
-        <v>37600</v>
+        <v>36700</v>
       </c>
       <c r="F54" s="3">
-        <v>38500</v>
+        <v>37800</v>
       </c>
       <c r="G54" s="3">
-        <v>29300</v>
+        <v>38700</v>
       </c>
       <c r="H54" s="3">
-        <v>20300</v>
+        <v>29500</v>
       </c>
       <c r="I54" s="3">
-        <v>19000</v>
+        <v>20400</v>
       </c>
       <c r="J54" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K54" s="3">
         <v>16000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,168 +2228,184 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8500</v>
       </c>
       <c r="G57" s="3">
         <v>8600</v>
       </c>
       <c r="H57" s="3">
-        <v>10300</v>
+        <v>8700</v>
       </c>
       <c r="I57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E58" s="3">
         <v>11400</v>
       </c>
-      <c r="E58" s="3">
-        <v>9400</v>
-      </c>
       <c r="F58" s="3">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="G58" s="3">
-        <v>11900</v>
+        <v>16100</v>
       </c>
       <c r="H58" s="3">
-        <v>8200</v>
+        <v>12000</v>
       </c>
       <c r="I58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6100</v>
       </c>
-      <c r="G59" s="3">
-        <v>4100</v>
-      </c>
       <c r="H59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
-        <v>7300</v>
-      </c>
       <c r="J59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27700</v>
+        <v>21000</v>
       </c>
       <c r="E60" s="3">
-        <v>24600</v>
+        <v>27900</v>
       </c>
       <c r="F60" s="3">
-        <v>30600</v>
+        <v>24700</v>
       </c>
       <c r="G60" s="3">
-        <v>24700</v>
+        <v>30800</v>
       </c>
       <c r="H60" s="3">
-        <v>20900</v>
+        <v>24800</v>
       </c>
       <c r="I60" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="J60" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K60" s="3">
         <v>11300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4000</v>
       </c>
-      <c r="I61" s="3">
-        <v>5800</v>
-      </c>
       <c r="J61" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K61" s="3">
         <v>7300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2267,31 +2413,34 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
       </c>
       <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33300</v>
+        <v>25900</v>
       </c>
       <c r="E66" s="3">
-        <v>31300</v>
+        <v>33500</v>
       </c>
       <c r="F66" s="3">
-        <v>32000</v>
+        <v>31500</v>
       </c>
       <c r="G66" s="3">
-        <v>26800</v>
+        <v>32200</v>
       </c>
       <c r="H66" s="3">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="I66" s="3">
-        <v>27100</v>
+        <v>25200</v>
       </c>
       <c r="J66" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K66" s="3">
         <v>18800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41000</v>
+        <v>-51900</v>
       </c>
       <c r="E72" s="3">
-        <v>-52800</v>
+        <v>-41300</v>
       </c>
       <c r="F72" s="3">
-        <v>-37900</v>
+        <v>-53100</v>
       </c>
       <c r="G72" s="3">
-        <v>-43400</v>
+        <v>-38200</v>
       </c>
       <c r="H72" s="3">
-        <v>-24100</v>
+        <v>-43700</v>
       </c>
       <c r="I72" s="3">
-        <v>-61800</v>
+        <v>-24300</v>
       </c>
       <c r="J72" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
-        <v>-4700</v>
-      </c>
       <c r="I76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J76" s="3">
         <v>-8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13400</v>
       </c>
-      <c r="E81" s="3">
-        <v>-16500</v>
-      </c>
       <c r="F81" s="3">
-        <v>-14300</v>
+        <v>-19400</v>
       </c>
       <c r="G81" s="3">
-        <v>-12700</v>
+        <v>-14400</v>
       </c>
       <c r="H81" s="3">
-        <v>-14800</v>
+        <v>-12800</v>
       </c>
       <c r="I81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,25 +3033,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -2867,8 +3066,11 @@
       <c r="L83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11100</v>
+        <v>-9500</v>
       </c>
       <c r="E89" s="3">
         <v>-11100</v>
       </c>
       <c r="F89" s="3">
-        <v>-14500</v>
+        <v>-11200</v>
       </c>
       <c r="G89" s="3">
-        <v>-10500</v>
+        <v>-14600</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-6100</v>
       </c>
       <c r="L89" s="3">
         <v>-6100</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>13400</v>
-      </c>
       <c r="G94" s="3">
-        <v>-13700</v>
+        <v>13500</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-13800</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +3481,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,49 +3586,55 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6100</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
-        <v>12400</v>
+        <v>6200</v>
       </c>
       <c r="F100" s="3">
-        <v>19600</v>
+        <v>12500</v>
       </c>
       <c r="G100" s="3">
-        <v>17500</v>
+        <v>19700</v>
       </c>
       <c r="H100" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I100" s="3">
         <v>6300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -3402,41 +3651,47 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>18500</v>
-      </c>
       <c r="G102" s="3">
-        <v>-6800</v>
+        <v>18600</v>
       </c>
       <c r="H102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BPTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>BPTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,8 +761,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,8 +799,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +837,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,43 +855,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E12" s="3">
         <v>10800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,8 +967,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,14 +999,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,43 +1020,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
         <v>12300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1038,34 +1068,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,8 +1112,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1088,34 +1122,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,46 +1160,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-14700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1175,8 +1215,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1184,43 +1224,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-13400</v>
-      </c>
       <c r="F23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-19400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1249,13 +1295,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-13400</v>
-      </c>
       <c r="F26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-19400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-14400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-13400</v>
-      </c>
       <c r="F27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G27" s="3">
         <v>-19400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,8 +1566,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1508,69 +1578,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-13400</v>
-      </c>
       <c r="F33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G33" s="3">
         <v>-19400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-13400</v>
-      </c>
       <c r="F35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G35" s="3">
         <v>-19400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,113 +1795,123 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>12000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21400</v>
       </c>
-      <c r="F41" s="3">
-        <v>25900</v>
-      </c>
       <c r="G41" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H41" s="3">
         <v>24900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="3">
         <v>600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9100</v>
       </c>
-      <c r="F43" s="3">
-        <v>5500</v>
-      </c>
       <c r="G43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H43" s="3">
         <v>7500</v>
       </c>
-      <c r="H43" s="3">
-        <v>5600</v>
-      </c>
       <c r="I43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,26 +1945,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -1876,51 +1975,57 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20100</v>
+        <v>12300</v>
       </c>
       <c r="E46" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F46" s="3">
         <v>32900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35400</v>
       </c>
-      <c r="H46" s="3">
-        <v>26000</v>
-      </c>
       <c r="I46" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J46" s="3">
         <v>17100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1934,10 +2039,10 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
         <v>500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>400</v>
       </c>
       <c r="I47" s="3">
         <v>400</v>
@@ -1949,27 +2054,30 @@
         <v>400</v>
       </c>
       <c r="L47" s="3">
+        <v>400</v>
+      </c>
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -1978,10 +2086,10 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -1989,8 +2097,11 @@
       <c r="M48" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2001,31 +2112,34 @@
         <v>2900</v>
       </c>
       <c r="F49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G49" s="3">
         <v>3000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1900</v>
       </c>
       <c r="M49" s="3">
         <v>1900</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,13 +2211,16 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -2120,8 +2240,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2129,8 +2249,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23800</v>
+        <v>15900</v>
       </c>
       <c r="E54" s="3">
-        <v>36700</v>
+        <v>23900</v>
       </c>
       <c r="F54" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G54" s="3">
         <v>37800</v>
       </c>
-      <c r="G54" s="3">
-        <v>38700</v>
-      </c>
       <c r="H54" s="3">
+        <v>38800</v>
+      </c>
+      <c r="I54" s="3">
         <v>29500</v>
       </c>
-      <c r="I54" s="3">
-        <v>20400</v>
-      </c>
       <c r="J54" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K54" s="3">
         <v>19200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,183 +2359,199 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10900</v>
       </c>
-      <c r="F57" s="3">
-        <v>8200</v>
-      </c>
       <c r="G57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E58" s="3">
         <v>8900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E60" s="3">
         <v>21000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30800</v>
       </c>
-      <c r="H60" s="3">
-        <v>24800</v>
-      </c>
       <c r="I60" s="3">
-        <v>21000</v>
+        <v>24900</v>
       </c>
       <c r="J60" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K60" s="3">
         <v>21300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
-        <v>4000</v>
-      </c>
       <c r="J61" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2416,10 +2562,10 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
         <v>600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -2431,16 +2577,19 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E66" s="3">
         <v>25900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31500</v>
       </c>
-      <c r="G66" s="3">
-        <v>32200</v>
-      </c>
       <c r="H66" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I66" s="3">
         <v>27000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51900</v>
+        <v>-17300</v>
       </c>
       <c r="E72" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41300</v>
       </c>
-      <c r="F72" s="3">
-        <v>-53100</v>
-      </c>
       <c r="G72" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-38200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-43700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-13400</v>
-      </c>
       <c r="F81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="G81" s="3">
         <v>-19400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,28 +3232,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-6100</v>
       </c>
       <c r="M89" s="3">
         <v>-6100</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>-6100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,34 +3524,37 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,55 +3832,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>19700</v>
       </c>
-      <c r="H100" s="3">
-        <v>17600</v>
-      </c>
       <c r="I100" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J100" s="3">
         <v>6300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3654,44 +3903,50 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5700</v>
       </c>
     </row>
